--- a/biology/Microbiologie/Clostridium_coccoides/Clostridium_coccoides.xlsx
+++ b/biology/Microbiologie/Clostridium_coccoides/Clostridium_coccoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blautia coccoides est une espèce de bactéries à gram positif de la famille des Lachnospiraceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,13 +551,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Blautia coccoides (Kaneuchi et al., 1976) Liu et al., 2008[1]. Le nom de ce taxon a été validé la même année[2].
-Blautia coccoides a pour synonyme[1] :
-Clostridium coccoides Kaneuchi et al., 1976
-Étymologie
-L'étymologie de l'épithète spécifique de Blautia coccoides est la suivante : coc.co’i.des. N.L. masc. n. coccus, coque ; du masculin grec. n. kokkos, grain, graine ; L. adj. suff. -oides, ressemblant, similaire ; de l'adjectif neutre et suffixe grec -eides, ressemblant, similaire ; du Gr. neut. n. eîdos, qui est vu, forme, figure ; N.L. adj. coccoides, similaire à une baie, en forme de baie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Blautia coccoides (Kaneuchi et al., 1976) Liu et al., 2008. Le nom de ce taxon a été validé la même année.
+Blautia coccoides a pour synonyme :
+Clostridium coccoides Kaneuchi et al., 1976</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clostridium_coccoides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clostridium_coccoides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'épithète spécifique de Blautia coccoides est la suivante : coc.co’i.des. N.L. masc. n. coccus, coque ; du masculin grec. n. kokkos, grain, graine ; L. adj. suff. -oides, ressemblant, similaire ; de l'adjectif neutre et suffixe grec -eides, ressemblant, similaire ; du Gr. neut. n. eîdos, qui est vu, forme, figure ; N.L. adj. coccoides, similaire à une baie, en forme de baie.
 </t>
         </is>
       </c>
